--- a/paper/paper_list.xlsx
+++ b/paper/paper_list.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20370"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\disto\gitrepos\steam_review\paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB16945A-D03B-421A-A7AE-22D8728D465F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="18225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="18225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>論文タイトル</t>
     <rPh sb="0" eb="2">
@@ -40,10 +41,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>URL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>出典</t>
     <rPh sb="0" eb="2">
       <t>シュッテン</t>
@@ -56,14 +53,318 @@
   </si>
   <si>
     <t>LNICST, volume 201</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Automatically Matching Bug Reports With Related App Reviews</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ICSE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://hackmd.io/y8bE1zR6RByMXUDySyEXhQ?both</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Classifying Multilingual User Feedback using Traditional Machine Learning and Deep Learning</t>
+  </si>
+  <si>
+    <t>REW(Requirements Engineering Conference Workshops)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NLP技術</t>
+    <rPh sb="3" eb="5">
+      <t>ギジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ML技術</t>
+    <rPh sb="2" eb="4">
+      <t>ギジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DistilBERT</t>
+  </si>
+  <si>
+    <t>対象アプリ</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Firefox，VLC，Signal，NextCloud</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データセット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://bit.ly/3lqwMt8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教師データ</t>
+    <rPh sb="0" eb="2">
+      <t>キョウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://mast.informatik.uni-hamburg.de/replication-packages/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FastText，深層学習</t>
+    <rPh sb="9" eb="11">
+      <t>シンソウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">J48，Naive Bayes，Random Forest，SVM(Support Vector Machine) </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Apple AppStore，Google Play</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.1 Experiment Data に"~ due to the great effort of manually labeling ~"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LDA(Latent Dirichlet Allocation)，bag of words，Stanford Parser</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://hackmd.io/JRQ_FYOgS5es5Zslz1V29Q?both</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>著者</t>
+    <rPh sb="0" eb="2">
+      <t>チョシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Zhenlian Peng, Jian Wang, Keqing He, Mingdong Tang</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Marlo Haering, Christoph Stanik, Walid Maalej</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Christoph Stanik, Marlo Haering, Walid Maalej</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Stanik REW2019論文をベースにしている</t>
+    <rPh sb="14" eb="16">
+      <t>ロンブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bug Report, Feature Request, or Simply Praise On Automatically Classifying App Reviews</t>
+  </si>
+  <si>
+    <t>RE(Requirements Engineering Conference)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Walid Maalej, Hadeer Nabil</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Maalej RE2015論文のデータセット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まとめ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://hackmd.io/9S8pqBXRRFi-it_ktMpRAg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目視調査でラベル付けしたreview
+1924reviewを手動で分類
+機能要求(295)，非機能要求(600)，その他(1029)</t>
+    <rPh sb="0" eb="2">
+      <t>モクシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヅ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目視調査でラベル付けしたreview
+4400reviewを手動で分類
+機能要求(299)，バグ報告(378)，ユーザ体験(737)，評価(2721)</t>
+    <rPh sb="0" eb="2">
+      <t>モクシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヅ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ホウコク</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>タイケン</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Naive Bayes，Decision Trees，MaxEnt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Apple AppStore，Google Play
+各カテゴリ上位アプリ
+Apple:1100アプリ110万review，Google Play:40アプリ146,057review</t>
+    <rPh sb="27" eb="28">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジョウイ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>マン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://mast.informatik.uni-hamburg.de/app-review-analysis/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Stanik REW2019準拠</t>
+    <rPh sb="14" eb="16">
+      <t>ジュンキョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通信業者のサポータTwitterへの英語・イタリア語のツイート
+英語のapp review</t>
+    <rPh sb="0" eb="2">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ギョウシャ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>エイゴ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>エイゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小文字化，特定のキーワード(アドレス等)のマスク，lemmatization</t>
+    <rPh sb="0" eb="3">
+      <t>コモジ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ナド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字列マッチング，Bag of Words，lemmatization，stopwords</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +386,14 @@
       <color theme="10"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -123,7 +432,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -132,6 +441,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -413,49 +731,200 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="60.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70.625" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="6.375" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="32.875" customWidth="1"/>
+    <col min="7" max="7" width="15.625" customWidth="1"/>
+    <col min="8" max="9" width="20.625" style="3" customWidth="1"/>
+    <col min="10" max="11" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="75" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>2017</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>2017</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>2021</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>2019</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="75" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <v>2015</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{F949ABBE-7216-49A0-A5DE-DC87C4E4CAF6}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{37423A7F-671C-4F77-8D90-60F0B3A8D0EE}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{D6FC2063-369C-433A-AD25-644B20726794}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{38CFB9A7-C434-478E-A92F-CEF3B37965B2}"/>
+    <hyperlink ref="E5" r:id="rId5" xr:uid="{9DE3E0D3-4AF8-4EEB-9BA7-77E32A97227F}"/>
+    <hyperlink ref="G5" r:id="rId6" xr:uid="{F41870B2-BB3E-41EA-8AB1-3FECB31BD76B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/paper/paper_list.xlsx
+++ b/paper/paper_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\disto\gitrepos\steam_review\paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB16945A-D03B-421A-A7AE-22D8728D465F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A8D05D-0FC9-4AB7-9CBF-0B41CF0BC93C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="18225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="78">
   <si>
     <t>論文タイトル</t>
     <rPh sb="0" eb="2">
@@ -122,20 +122,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FastText，深層学習</t>
-    <rPh sb="9" eb="11">
-      <t>シンソウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガクシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">J48，Naive Bayes，Random Forest，SVM(Support Vector Machine) </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Apple AppStore，Google Play</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -151,10 +137,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>LDA(Latent Dirichlet Allocation)，bag of words，Stanford Parser</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>https://hackmd.io/JRQ_FYOgS5es5Zslz1V29Q?both</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -183,9 +165,6 @@
       <t>ロンブン</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Bug Report, Feature Request, or Simply Praise On Automatically Classifying App Reviews</t>
   </si>
   <si>
     <t>RE(Requirements Engineering Conference)</t>
@@ -283,14 +262,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Naive Bayes，Decision Trees，MaxEnt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Apple AppStore，Google Play
 各カテゴリ上位アプリ
 Apple:1100アプリ110万review，Google Play:40アプリ146,057review</t>
@@ -337,25 +308,306 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>小文字化，特定のキーワード(アドレス等)のマスク，lemmatization</t>
+    <t>Walid Maalej, Zijad Kurtanovic, Hadeer Nabil, Christoph Stanik</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>On the automatic classification of app reviews</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://hackmd.io/CojrPFzxTDCZTkyG9e_bgg?both</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bug Report, Feature Request, or Simply Praise? On Automatically Classifying App Reviews</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Maalej RE2015の拡張版</t>
+    <rPh sb="14" eb="17">
+      <t>カクチョウバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Software Feature Request Detection in Issue Tracking Systems</t>
+  </si>
+  <si>
+    <t>Thorsten Merten, Matus Falis, Paul Hubner, Thomas Quirchmayr, Simone Bursner, Barbara Paech</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Naive Bayes, Decision Trees, MaxEnt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">J48, Naive Bayes, Random Forest, SVM(Support Vector Machine) </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Naive Bayes(NB), Decision Trees(DT), MaxEnt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Naive Bayes, Multinomial Naive Bayes, SVM(Support Vector Machine),  LR(Logistic regression), SGD(確率的勾配降下), Decision tree(DT), Randam Forest(RF)</t>
+    <rPh sb="97" eb="104">
+      <t>カクリツテキコウバイコウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4つのOSSのITSのissue
+c:geo, Lighttpd, Radiant, Redmine</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目視調査でラベル付け
+機能要求，品質要求，解決案，追加説明</t>
+    <rPh sb="0" eb="4">
+      <t>モクシチョウサ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヅ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>キノウヨウキュウ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>ヒンシツヨウキュウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カイケツ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>アン</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>ツイカセツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reviewではなくITSのissueを対象</t>
+    <rPh sb="20" eb="22">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N-gram, BoW, Subject-Action-Object(SAO), 小文字化, Stemming, 句読点除去</t>
+    <rPh sb="41" eb="45">
+      <t>コモジカ</t>
+    </rPh>
+    <rPh sb="57" eb="60">
+      <t>クトウテン</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ジョキョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">なし </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Retrieving and Analyzing Mobile Apps Feature Requests from Online Reviews</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Claudia Iacob, Rachel Harrison</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Google app store 上位6つのカテゴリから無作為に選択
+Personalization (54), Tools (14), Books and References (45), Education (27), Productivity (19)</t>
+    <rPh sb="17" eb="19">
+      <t>ジョウイ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>ムサクイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lang Pipe(文章分割ツール), Linguistic Rule</t>
+    <rPh sb="10" eb="14">
+      <t>ブンショウブンカツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機械学習ではない</t>
+    <rPh sb="0" eb="4">
+      <t>キカイガクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>review分類はMaalej RE2016の流用</t>
+    <rPh sb="6" eb="8">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>リュウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>What parts of your apps are loved by users</t>
+  </si>
+  <si>
+    <t>ASE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Xiaodong Gu, Sunghun Kim</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MARA(Mobile App Review Analyzer)というツールを作った</t>
+    <rPh sb="39" eb="40">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LDA(Latent Dirichlet Allocation), bag of words, Stanford Parser</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字列マッチング, Bag of Words(BoW), lemmatization, stopwords</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SUR-Miner(Software User Review Miner)というツールを作った
+BoWでは文構造や意味論を無視しているため，あらかじめ定義された言語ルールに基づいて分析</t>
+    <rPh sb="44" eb="45">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="53" eb="56">
+      <t>ブンコウゾウ</t>
+    </rPh>
+    <rPh sb="57" eb="60">
+      <t>イミロン</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ムシ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ブンセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Max Entropy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LDA(Latent Dirichlet Allocation), 誤字脱字-短縮-繰り返し修正（※coz→because, &amp;→and, sooooo→so）, N-gram, POS-tag, parsing tree（※気を幅優先探索して上5つのposタグを特徴量に）, SDG(Semantic Dependence Graph)</t>
+    <rPh sb="34" eb="38">
+      <t>ゴジダツジ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>タンシュク</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="115" eb="120">
+      <t>ハバユウセンタンサク</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="132" eb="135">
+      <t>トクチョウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Google Play のAndroid上位17アプリ</t>
+    <rPh sb="20" eb="22">
+      <t>ジョウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目視調査でラベル付けしたreview
+2000reviewを手動で分類
+praise, Aspect Evaluation, Bug report, feature request, other</t>
+    <rPh sb="0" eb="2">
+      <t>モクシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヅ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>深層学習</t>
+    <rPh sb="0" eb="2">
+      <t>シンソウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小文字化, 特定のキーワード(アドレス等)のマスク, lemmatization, FastText</t>
     <rPh sb="0" eb="3">
       <t>コモジ</t>
     </rPh>
     <rPh sb="3" eb="4">
       <t>カ</t>
     </rPh>
-    <rPh sb="5" eb="7">
+    <rPh sb="6" eb="8">
       <t>トクテイ</t>
     </rPh>
-    <rPh sb="18" eb="19">
+    <rPh sb="19" eb="20">
       <t>ナド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>文字列マッチング，Bag of Words，lemmatization，stopwords</t>
-    <rPh sb="0" eb="3">
-      <t>モジレツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -732,11 +984,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -747,7 +999,7 @@
     <col min="4" max="4" width="10.625" customWidth="1"/>
     <col min="6" max="6" width="32.875" customWidth="1"/>
     <col min="7" max="7" width="15.625" customWidth="1"/>
-    <col min="8" max="9" width="20.625" style="3" customWidth="1"/>
+    <col min="8" max="9" width="30.625" style="3" customWidth="1"/>
     <col min="10" max="11" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -762,10 +1014,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -783,7 +1035,7 @@
         <v>17</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="75" x14ac:dyDescent="0.4">
@@ -797,28 +1049,28 @@
         <v>2017</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
         <v>21</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -832,7 +1084,7 @@
         <v>2021</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
@@ -847,10 +1099,10 @@
         <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
@@ -864,54 +1116,197 @@
         <v>2019</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>19</v>
+        <v>76</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="75" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5">
+        <v>2016</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6">
+        <v>2015</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C5">
+      <c r="F6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="112.5" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7">
+        <v>2016</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8">
+        <v>2013</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="150" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9">
         <v>2015</v>
       </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>38</v>
+      <c r="D9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -921,10 +1316,12 @@
     <hyperlink ref="G3" r:id="rId2" xr:uid="{37423A7F-671C-4F77-8D90-60F0B3A8D0EE}"/>
     <hyperlink ref="G4" r:id="rId3" xr:uid="{D6FC2063-369C-433A-AD25-644B20726794}"/>
     <hyperlink ref="E4" r:id="rId4" xr:uid="{38CFB9A7-C434-478E-A92F-CEF3B37965B2}"/>
-    <hyperlink ref="E5" r:id="rId5" xr:uid="{9DE3E0D3-4AF8-4EEB-9BA7-77E32A97227F}"/>
-    <hyperlink ref="G5" r:id="rId6" xr:uid="{F41870B2-BB3E-41EA-8AB1-3FECB31BD76B}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{9DE3E0D3-4AF8-4EEB-9BA7-77E32A97227F}"/>
+    <hyperlink ref="G6" r:id="rId6" xr:uid="{F41870B2-BB3E-41EA-8AB1-3FECB31BD76B}"/>
+    <hyperlink ref="E5" r:id="rId7" xr:uid="{0D4E8A45-E46E-40C5-B6C9-F4A40769B647}"/>
+    <hyperlink ref="G5" r:id="rId8" xr:uid="{42FB180F-3DE5-4B93-9681-6895C3BCA7D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/paper/paper_list.xlsx
+++ b/paper/paper_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20370"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\disto\gitrepos\steam_review\paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A8D05D-0FC9-4AB7-9CBF-0B41CF0BC93C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C0976A-3122-4FBB-9B6E-E5D5BAA53C9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="18225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="85">
   <si>
     <t>論文タイトル</t>
     <rPh sb="0" eb="2">
@@ -608,6 +608,64 @@
     </rPh>
     <rPh sb="19" eb="20">
       <t>ナド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>An empirical study of game reviews on the Steam platform</t>
+  </si>
+  <si>
+    <t>Empir. Softw. Eng. J.</t>
+  </si>
+  <si>
+    <t>Dayi Lin, Cor-Paul Bezemer, Ying Zou, Ahmed E. Hassan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://hackmd.io/xHiufLI2RZKKwsequ4XY-A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Steamの全レビュー
+Indie, Early access, Free-to-playの3*2項目で分類</t>
+    <rPh sb="6" eb="7">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>472件をサンプリングして全て目視で分類
+Not helpful, Pro, Con, Video, Suggestion, Bugの6つのタグを独立に割り振った</t>
+    <rPh sb="3" eb="4">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>モクシ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ドクリツ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>フ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -984,11 +1042,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1309,6 +1367,32 @@
         <v>70</v>
       </c>
     </row>
+    <row r="10" spans="1:11" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10">
+        <v>2019</v>
+      </c>
+      <c r="D10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -1320,8 +1404,9 @@
     <hyperlink ref="G6" r:id="rId6" xr:uid="{F41870B2-BB3E-41EA-8AB1-3FECB31BD76B}"/>
     <hyperlink ref="E5" r:id="rId7" xr:uid="{0D4E8A45-E46E-40C5-B6C9-F4A40769B647}"/>
     <hyperlink ref="G5" r:id="rId8" xr:uid="{42FB180F-3DE5-4B93-9681-6895C3BCA7D8}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{85B23F81-0B10-4FFB-9373-132D66AD665E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/paper/paper_list.xlsx
+++ b/paper/paper_list.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\disto\gitrepos\steam_review\paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C0976A-3122-4FBB-9B6E-E5D5BAA53C9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="18225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="18225"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -586,16 +585,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>深層学習</t>
-    <rPh sb="0" eb="2">
-      <t>シンソウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガクシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>小文字化, 特定のキーワード(アドレス等)のマスク, lemmatization, FastText</t>
     <rPh sb="0" eb="3">
       <t>コモジ</t>
@@ -669,11 +658,15 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Deep learning, CNN</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1041,12 +1034,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1186,10 +1179,10 @@
         <v>18</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>63</v>
@@ -1369,42 +1362,42 @@
     </row>
     <row r="10" spans="1:11" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" t="s">
         <v>78</v>
-      </c>
-      <c r="B10" t="s">
-        <v>79</v>
       </c>
       <c r="C10">
         <v>2019</v>
       </c>
       <c r="D10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" t="s">
         <v>82</v>
       </c>
-      <c r="G10" t="s">
+      <c r="K10" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{F949ABBE-7216-49A0-A5DE-DC87C4E4CAF6}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{37423A7F-671C-4F77-8D90-60F0B3A8D0EE}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{D6FC2063-369C-433A-AD25-644B20726794}"/>
-    <hyperlink ref="E4" r:id="rId4" xr:uid="{38CFB9A7-C434-478E-A92F-CEF3B37965B2}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{9DE3E0D3-4AF8-4EEB-9BA7-77E32A97227F}"/>
-    <hyperlink ref="G6" r:id="rId6" xr:uid="{F41870B2-BB3E-41EA-8AB1-3FECB31BD76B}"/>
-    <hyperlink ref="E5" r:id="rId7" xr:uid="{0D4E8A45-E46E-40C5-B6C9-F4A40769B647}"/>
-    <hyperlink ref="G5" r:id="rId8" xr:uid="{42FB180F-3DE5-4B93-9681-6895C3BCA7D8}"/>
-    <hyperlink ref="E10" r:id="rId9" xr:uid="{85B23F81-0B10-4FFB-9373-132D66AD665E}"/>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="E4" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="G6" r:id="rId6"/>
+    <hyperlink ref="E5" r:id="rId7"/>
+    <hyperlink ref="G5" r:id="rId8"/>
+    <hyperlink ref="E10" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>

--- a/paper/paper_list.xlsx
+++ b/paper/paper_list.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\disto\gitrepos\steam_review\paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EDACAD-0F2E-46A0-9801-C767F5229659}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="18225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="18225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="89">
   <si>
     <t>論文タイトル</t>
     <rPh sb="0" eb="2">
@@ -604,9 +605,6 @@
     <t>An empirical study of game reviews on the Steam platform</t>
   </si>
   <si>
-    <t>Empir. Softw. Eng. J.</t>
-  </si>
-  <si>
     <t>Dayi Lin, Cor-Paul Bezemer, Ying Zou, Ahmed E. Hassan</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -662,11 +660,30 @@
     <t>Deep learning, CNN</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>An Empirical Study Of Early Access Games On The Steam Platform</t>
+  </si>
+  <si>
+    <t>Empir. Softw. Eng. J.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Empir. Softw. Eng.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dayi Lin, Cor-Paul Bezemer, Ahmed E. Hassan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s10664-017-9531-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1034,12 +1051,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1182,7 +1199,7 @@
         <v>76</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>63</v>
@@ -1365,41 +1382,59 @@
         <v>77</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C10">
         <v>2019</v>
       </c>
       <c r="D10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" t="s">
         <v>81</v>
       </c>
-      <c r="G10" t="s">
+      <c r="K10" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>83</v>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11">
+        <v>2018</v>
+      </c>
+      <c r="D11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="E4" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="G6" r:id="rId6"/>
-    <hyperlink ref="E5" r:id="rId7"/>
-    <hyperlink ref="G5" r:id="rId8"/>
-    <hyperlink ref="E10" r:id="rId9"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E11" r:id="rId10" xr:uid="{665A920D-A1B5-4F14-8DA9-C91C90498BCF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/paper/paper_list.xlsx
+++ b/paper/paper_list.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\disto\gitrepos\steam_review\paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EDACAD-0F2E-46A0-9801-C767F5229659}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="18225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="18230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -171,10 +170,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Walid Maalej, Hadeer Nabil</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Maalej RE2015論文のデータセット</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -679,11 +674,15 @@
     <t>https://link.springer.com/article/10.1007/s10664-017-9531-3</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Walid Maalej, Hadeer Nabil</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1051,27 +1050,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="70.625" customWidth="1"/>
-    <col min="2" max="2" width="7.625" customWidth="1"/>
-    <col min="3" max="3" width="6.375" customWidth="1"/>
-    <col min="4" max="4" width="10.625" customWidth="1"/>
-    <col min="6" max="6" width="32.875" customWidth="1"/>
-    <col min="7" max="7" width="15.625" customWidth="1"/>
-    <col min="8" max="9" width="30.625" style="3" customWidth="1"/>
-    <col min="10" max="11" width="30.625" customWidth="1"/>
+    <col min="1" max="1" width="70.58203125" customWidth="1"/>
+    <col min="2" max="2" width="7.58203125" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.58203125" customWidth="1"/>
+    <col min="6" max="6" width="32.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15.58203125" customWidth="1"/>
+    <col min="8" max="9" width="30.58203125" style="3" customWidth="1"/>
+    <col min="10" max="11" width="30.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1085,7 +1084,7 @@
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -1106,7 +1105,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="75" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1120,28 +1119,28 @@
         <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1167,13 +1166,13 @@
         <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1190,24 +1189,24 @@
         <v>22</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="75" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
@@ -1216,33 +1215,33 @@
         <v>2016</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
         <v>41</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>42</v>
       </c>
       <c r="B6" t="s">
         <v>28</v>
@@ -1251,30 +1250,30 @@
         <v>2015</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="H6" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="112.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="90" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
         <v>28</v>
@@ -1283,156 +1282,156 @@
         <v>2016</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="90" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="93.75" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>56</v>
-      </c>
-      <c r="B8" t="s">
-        <v>57</v>
       </c>
       <c r="C8">
         <v>2013</v>
       </c>
       <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="K8" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="150" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="126" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
         <v>64</v>
-      </c>
-      <c r="B9" t="s">
-        <v>65</v>
       </c>
       <c r="C9">
         <v>2015</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="K9" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="93.75" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="90" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10">
         <v>2019</v>
       </c>
       <c r="D10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" t="s">
         <v>80</v>
       </c>
-      <c r="G10" t="s">
+      <c r="K10" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>82</v>
-      </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11">
         <v>2018</v>
       </c>
       <c r="D11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E11" r:id="rId10" xr:uid="{665A920D-A1B5-4F14-8DA9-C91C90498BCF}"/>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="E4" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="G6" r:id="rId6"/>
+    <hyperlink ref="E5" r:id="rId7"/>
+    <hyperlink ref="G5" r:id="rId8"/>
+    <hyperlink ref="E10" r:id="rId9"/>
+    <hyperlink ref="E11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
